--- a/share/doc/validation/Scenarios/NervousValidation.xlsx
+++ b/share/doc/validation/Scenarios/NervousValidation.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectPrograms\BioGears\core\share\doc\validation\Scenarios\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="-210" windowWidth="20010" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="-216" windowWidth="20016" windowHeight="7992" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">Baroreceptors!$B$2:$L$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$B$1:$K$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -44,9 +49,6 @@
     <t>Hemorrhage</t>
   </si>
   <si>
-    <t>10% blood loss in 30 s</t>
-  </si>
-  <si>
     <t>Systemic Vascular Resistance (mmHg s/mL)</t>
   </si>
   <si>
@@ -59,9 +61,6 @@
     <t>|&lt;span class="warning"&gt;</t>
   </si>
   <si>
-    <t>Increase ~30% @cite Hosomi1979effect @cite Ottesen2004applied</t>
-  </si>
-  <si>
     <t>&lt;/span&gt;|</t>
   </si>
   <si>
@@ -207,12 +206,18 @@
   </si>
   <si>
     <t>Note: In BG, this is Brain-Inflow</t>
+  </si>
+  <si>
+    <t>10% blood loss in 30 s (Class 1 Hemorrhage)</t>
+  </si>
+  <si>
+    <t>Slight increase, remain &lt; 100 @cite gutierrez2004clinical</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -755,7 +760,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -880,6 +885,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -938,6 +946,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -985,7 +996,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1020,7 +1031,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1234,99 +1245,99 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="1.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="30" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="30"/>
-    <col min="12" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="1.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="1.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="30" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="30" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="30"/>
+    <col min="12" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>29</v>
-      </c>
       <c r="K1" s="33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1336,129 +1347,129 @@
         <v>4</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="22">
         <v>2</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" s="23">
         <v>1</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J3" s="31">
         <v>0</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" s="22">
         <v>19</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" s="23">
         <v>6</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J4" s="31">
         <v>0</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="24">
         <f>SUM(F3,F4)</f>
         <v>21</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" s="23">
         <f>SUM(H3,H4)</f>
         <v>7</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J5" s="31">
         <f>SUM(J3,J4)</f>
         <v>0</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
@@ -1480,66 +1491,66 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="C4" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>26</v>
-      </c>
       <c r="C5" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1554,155 +1565,155 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" style="4" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="43.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="20" width="9.140625" style="4"/>
-    <col min="21" max="21" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="4"/>
+    <col min="11" max="11" width="30.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="20" width="9.109375" style="4"/>
+    <col min="21" max="21" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="9">
         <v>325</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1723,35 +1734,35 @@
       <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" customWidth="1"/>
     <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
     <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" style="27" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" style="27" customWidth="1"/>
     <col min="14" max="14" width="23" style="27" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" style="27" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" style="27" customWidth="1"/>
     <col min="16" max="16" width="23" style="27" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" style="27" customWidth="1"/>
+    <col min="17" max="17" width="9.88671875" style="27" customWidth="1"/>
     <col min="18" max="18" width="23" style="27" customWidth="1"/>
-    <col min="19" max="19" width="2.5703125" customWidth="1"/>
-    <col min="20" max="20" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.5546875" customWidth="1"/>
+    <col min="20" max="20" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -1773,422 +1784,422 @@
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
     </row>
-    <row r="2" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="O2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="9">
         <v>20</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="9">
         <v>600</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="9">
         <v>620</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="9">
         <v>900</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J5" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="41" t="s">
-        <v>40</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N5" s="41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P5" s="41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R5" s="41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="9">
         <v>920</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="9">
         <v>1700</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J6" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="L6" s="41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N6" s="41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P6" s="42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="9">
         <v>1720</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="9">
         <v>2000</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J7" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="41" t="s">
-        <v>40</v>
-      </c>
       <c r="M7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N7" s="41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P7" s="41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R7" s="41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="9">
         <v>2020</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" s="9">
         <v>3220</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L8" s="41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N8" s="41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P8" s="42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L9" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2206,6 +2217,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D00DDCF912707249810263345C6FBCAE" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05fc12c866532ec63d2052ef81b63530">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="711b5f35d88f7f6ebfe284b0f73f4393">
     <xsd:element name="properties">
@@ -2319,12 +2336,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF1B20E2-65A5-4DC5-B5E1-EAEF16402220}">
   <ds:schemaRefs>
@@ -2334,6 +2345,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6320210A-C44C-4B82-8349-5A58CB3B5A77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{000C402D-5B8F-44E9-B6EC-AD906C5241AB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2347,19 +2373,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6320210A-C44C-4B82-8349-5A58CB3B5A77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/share/doc/validation/Scenarios/NervousValidation.xlsx
+++ b/share/doc/validation/Scenarios/NervousValidation.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectPrograms\BioGears\core\share\doc\validation\Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BioGears\biogears\core\share\doc\validation\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="-216" windowWidth="20016" windowHeight="7992" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="-210" windowWidth="20010" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Key" sheetId="3" r:id="rId2"/>
     <sheet name="Baroreceptors" sheetId="2" r:id="rId3"/>
-    <sheet name="TBI" sheetId="4" r:id="rId4"/>
+    <sheet name="Sleep" sheetId="5" r:id="rId4"/>
+    <sheet name="TBI" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Baroreceptors!$B$2:$L$4</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="80">
   <si>
     <t xml:space="preserve">Scenario </t>
   </si>
@@ -212,6 +213,60 @@
   </si>
   <si>
     <t>Slight increase, remain &lt; 100 @cite gutierrez2004clinical</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Sleep of 4hr per day for 5 days</t>
+  </si>
+  <si>
+    <t>Sampled Scenario Time (min)</t>
+  </si>
+  <si>
+    <t>Glucose clearance (%/min)</t>
+  </si>
+  <si>
+    <t>Glucose effectiveness (%/min) clearance without insulin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insulin response (pmol/min) </t>
+  </si>
+  <si>
+    <t>Stanford sleepyness score (unitless)</t>
+  </si>
+  <si>
+    <t>Cerebral glucose uptake (% from baseline)</t>
+  </si>
+  <si>
+    <t>40% lower (1.42%/min compared to 2.4%/min @cite spiegel1999impact</t>
+  </si>
+  <si>
+    <t>Decrease 30% @cite spiegel1999impact</t>
+  </si>
+  <si>
+    <t>Decrease from 432 to 304 pmol/min @cite spiegel1999impact</t>
+  </si>
+  <si>
+    <t>Increase from 2.1 to 4.4  @cite spiegel1999impact</t>
+  </si>
+  <si>
+    <t>Decrease of 7% @cite spiegel1999impact</t>
+  </si>
+  <si>
+    <t>Reaction Time (ms)</t>
+  </si>
+  <si>
+    <t>Attention Lapses (% from baseline)</t>
+  </si>
+  <si>
+    <t>Increase ~1000% @cite mchill2018chronic</t>
+  </si>
+  <si>
+    <t>Increase of 100% @cite mchill2018chronic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleep deprivation study taken from spiegle and McHill, given carb rich meal (62%) every 5h </t>
   </si>
 </sst>
 </file>
@@ -384,7 +439,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,6 +623,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -760,7 +821,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -887,6 +948,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1249,23 +1313,23 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="1.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="30" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="30" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="30"/>
-    <col min="12" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="1.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="1.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="30" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="30"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>9</v>
       </c>
@@ -1300,7 +1364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>9</v>
       </c>
@@ -1335,7 +1399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>9</v>
       </c>
@@ -1368,7 +1432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>9</v>
       </c>
@@ -1401,7 +1465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>9</v>
       </c>
@@ -1437,39 +1501,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
@@ -1491,14 +1555,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -1509,7 +1573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
@@ -1520,7 +1584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>19</v>
       </c>
@@ -1531,7 +1595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>21</v>
       </c>
@@ -1542,7 +1606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>23</v>
       </c>
@@ -1565,35 +1629,35 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection sqref="A1:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" style="4" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="43.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="20" width="9.109375" style="4"/>
-    <col min="21" max="21" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.109375" style="4"/>
+    <col min="11" max="11" width="30.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="20" width="9.140625" style="4"/>
+    <col min="21" max="21" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1634,7 +1698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
@@ -1675,7 +1739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1728,38 +1792,283 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.140625" customWidth="1"/>
+    <col min="16" max="16" width="26.7109375" customWidth="1"/>
+    <col min="18" max="18" width="29.85546875" customWidth="1"/>
+    <col min="20" max="20" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="9">
+        <v>7200</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" customWidth="1"/>
     <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
     <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" style="27" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="27" customWidth="1"/>
     <col min="14" max="14" width="23" style="27" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" style="27" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="27" customWidth="1"/>
     <col min="16" max="16" width="23" style="27" customWidth="1"/>
-    <col min="17" max="17" width="9.88671875" style="27" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" style="27" customWidth="1"/>
     <col min="18" max="18" width="23" style="27" customWidth="1"/>
-    <col min="19" max="19" width="2.5546875" customWidth="1"/>
-    <col min="20" max="20" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.5703125" customWidth="1"/>
+    <col min="20" max="20" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>41</v>
@@ -1784,7 +2093,7 @@
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
     </row>
-    <row r="2" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1843,7 +2152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
@@ -1902,7 +2211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1961,7 +2270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -2020,7 +2329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -2079,7 +2388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -2138,7 +2447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2197,7 +2506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L9" s="27" t="s">
         <v>59</v>
       </c>
@@ -2208,21 +2517,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D00DDCF912707249810263345C6FBCAE" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05fc12c866532ec63d2052ef81b63530">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="711b5f35d88f7f6ebfe284b0f73f4393">
     <xsd:element name="properties">
@@ -2336,10 +2630,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF1B20E2-65A5-4DC5-B5E1-EAEF16402220}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{000C402D-5B8F-44E9-B6EC-AD906C5241AB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2360,17 +2677,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{000C402D-5B8F-44E9-B6EC-AD906C5241AB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF1B20E2-65A5-4DC5-B5E1-EAEF16402220}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>